--- a/menu.xlsx
+++ b/menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skdzi\Desktop\Pizzeria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7E740EB-B01C-41BD-8CC7-B7D2336E04BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC73A4-59AF-4183-A20E-0F0FC99E25C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Pizza</t>
   </si>
@@ -34,82 +34,85 @@
     <t>50cm</t>
   </si>
   <si>
-    <t>1. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>2. Twoj stary na talerzu</t>
-  </si>
-  <si>
-    <t>2. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>3. Twoj stary na talerzu</t>
-  </si>
-  <si>
-    <t>3. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>4. Twoj stary na talerzu</t>
-  </si>
-  <si>
-    <t>4. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>5. Twoj stary na talerzu</t>
-  </si>
-  <si>
-    <t>5. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>6. Twoj stary na talerzu</t>
-  </si>
-  <si>
-    <t>6. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>7. Twoj stary na talerzu</t>
-  </si>
-  <si>
-    <t>7. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>8. Twoj stary na talerzu</t>
-  </si>
-  <si>
-    <t>8. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>9. Twoj stary na talerzu</t>
-  </si>
-  <si>
-    <t>9. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>10. Twoj stary na talerzu</t>
-  </si>
-  <si>
-    <t>10. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>11. Twoj stary na talerzu</t>
-  </si>
-  <si>
-    <t>11. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>12. Twoj stary na talerzu</t>
-  </si>
-  <si>
-    <t>12. Twoja stara na talerzu</t>
-  </si>
-  <si>
-    <t>13. Twoj stary na talerzu</t>
+    <t>1. Margarita</t>
+  </si>
+  <si>
+    <t>2. Chippola</t>
+  </si>
+  <si>
+    <t>3. Salami</t>
+  </si>
+  <si>
+    <t>4. Prosciutto</t>
+  </si>
+  <si>
+    <t>5. Fungi</t>
+  </si>
+  <si>
+    <t>6. Pepperoni</t>
+  </si>
+  <si>
+    <t>7. Rustica</t>
+  </si>
+  <si>
+    <t>8. Amorosa</t>
+  </si>
+  <si>
+    <t>9. Capricossa</t>
+  </si>
+  <si>
+    <t>10. Hawajska</t>
+  </si>
+  <si>
+    <t>11. Al Tono</t>
+  </si>
+  <si>
+    <t>12. Wiejska</t>
+  </si>
+  <si>
+    <t>Skladniki</t>
+  </si>
+  <si>
+    <t>sos pomidorowy, ser, przyprawy</t>
+  </si>
+  <si>
+    <t>cebula, sos pomidorowy, ser, przyprawy</t>
+  </si>
+  <si>
+    <t>alami, sos pomidorowy, ser, przyprawy</t>
+  </si>
+  <si>
+    <t>szynka, sos pomidorowy, ser, przyprawy</t>
+  </si>
+  <si>
+    <t>pieczarki, sos pomidorowy, ser, przyprawy</t>
+  </si>
+  <si>
+    <t>kiełbasa pepperoni, sos pomidorowy, ser, przyprawy</t>
+  </si>
+  <si>
+    <t>boczek, cebula, sos pomidorowy, ser, przyprawy</t>
+  </si>
+  <si>
+    <t>salami, pieczarki, sos pomidorowy, ser, przyprawy</t>
+  </si>
+  <si>
+    <t>szynka, pieczarki, sos pomidorowy, ser, przyprawy</t>
+  </si>
+  <si>
+    <t>szynka, ananas, sos pomidorowy, ser, przyprawy</t>
+  </si>
+  <si>
+    <t>tuńczyk, kukurydza, cebula lub oliwki, sos pomidorowy, ser, przyprawy</t>
+  </si>
+  <si>
+    <t>kiełbasa, cebula, ogórek kiszony, sos pomidorowy, ser, przyprawy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;zł&quot;;[Red]\-#,##0\ &quot;zł&quot;"/>
   </numFmts>
@@ -965,19 +968,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="5" max="5" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,342 +994,273 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1">
-        <v>52</v>
-      </c>
-      <c r="C23" s="1">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1">
-        <v>56</v>
-      </c>
-      <c r="D24" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1">
-        <v>54</v>
-      </c>
-      <c r="C25" s="1">
-        <v>57</v>
-      </c>
-      <c r="D25" s="1">
-        <v>60</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
